--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1957.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1957.xlsx
@@ -351,10 +351,10 @@
         <v>1.478771746718297</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.350135811975352</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1957.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1957.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.478771746718297</v>
+        <v>1.096101641654968</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.067735910415649</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>9.21839427947998</v>
       </c>
       <c r="D1">
-        <v>1.350135811975352</v>
+        <v>2.420483112335205</v>
       </c>
       <c r="E1">
-        <v>0.8964593737867093</v>
+        <v>1.300038814544678</v>
       </c>
     </row>
   </sheetData>
